--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/Nav_NextProfile_and_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/Nav_NextProfile_and_AddNewProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6D2C84-40D2-4781-AE33-15F7ACD7282D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2018C4E-9986-4DB5-A7AD-132A28823CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82F0EBEC-25E3-4366-8F02-E408963A0804}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Keyword</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>link_addToProfile</t>
+  </si>
+  <si>
+    <t>getData=Profile</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -507,7 +516,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,7 +599,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -604,10 +613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52749D2-5B79-48DD-89A8-77E5398B0231}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,7 +627,7 @@
     <col min="4" max="4" width="4.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -631,8 +640,11 @@
       <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -641,8 +653,11 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -650,7 +665,10 @@
         <v>16</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/Nav_NextProfile_and_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/Nav_NextProfile_and_AddNewProfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2018C4E-9986-4DB5-A7AD-132A28823CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88593532-EFBF-453E-85FB-A152B6C1BDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82F0EBEC-25E3-4366-8F02-E408963A0804}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Keyword</t>
   </si>
@@ -516,7 +516,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -578,15 +578,6 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
